--- a/Identifier/Old to label/to_label7.xlsx
+++ b/Identifier/Old to label/to_label7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefva\Documents\Master\Thesis_s2\Code\Identifier\Old to label\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFBFBFD-FBD3-47C2-B6C7-EA6BEE509CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123BCDE4-CD62-4F3E-B01C-9E0400AFC66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -888,15 +888,15 @@
   <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -911,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0.46159893274307251</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0.39494377374649048</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0.37930631637573242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -979,7 +979,7 @@
         <v>0.30484718084335333</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0.30484718084335333</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0.30484718084335333</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0.30484718084335333</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>0.29410636425018311</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0.26867574453353882</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0.26521706581115723</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0.26036709547042852</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>0.21990329027175901</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0.20721268653869629</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0.2047419548034668</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>0.20290613174438479</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0.20290613174438479</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>0.20290613174438479</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>0.20290613174438479</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0.20290613174438479</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0.19219279289245611</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>0.1740531921386719</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0.15757268667221069</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0.15029984712600711</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0.15029984712600711</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0.15029984712600711</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>0.1498224139213562</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.1476756930351257</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>0.1476756930351257</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0.1476756930351257</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>0.1476756930351257</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0.1459339261054993</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0.12901431322097781</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>24</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0.1057747602462769</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0.105009913444519</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>9.7498714923858643E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>27</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>9.042048454284668E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>8.8569164276123047E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>8.8569164276123047E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>8.8569164276123047E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>8.8569164276123047E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>29</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>7.9009115695953369E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>7.7907741069793701E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>31</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>7.2447359561920166E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>32</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>7.2219192981719971E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>6.5149366855621338E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>34</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>6.5085291862487793E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>35</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>5.4080843925476067E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>4.6145796775817871E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>4.544907808303833E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>38</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>4.3456614017486572E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>39</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>3.9804697036743157E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>40</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>3.9774715900421143E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>41</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>3.625786304473877E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>42</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>3.409498929977417E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>43</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>3.3338069915771477E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>44</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>3.2581329345703118E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>45</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>3.1773507595062263E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>46</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>3.0806064605712891E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>47</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>3.0647814273834229E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>48</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>3.024214506149292E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>49</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>2.8860926628112789E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>50</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>2.698063850402832E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>51</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>2.4065971374511719E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>52</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>2.3638069629669189E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>53</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>2.2245228290557861E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>54</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>2.0929813385009769E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>55</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>2.0789682865142819E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>55</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>2.0789682865142819E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>56</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>1.8803596496582031E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>56</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>1.8803596496582031E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>1.8803596496582031E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>57</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>1.7255604267120361E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>58</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1.468837261199951E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>59</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>1.3736128807067869E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>60</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>1.2960135936737061E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>61</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>1.191353797912598E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>62</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>1.1851966381073E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>62</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1.1851966381073E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>63</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>1.0394930839538571E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>64</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>9.7671747207641602E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>65</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>9.5763802528381348E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>66</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>8.6720585823059082E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>67</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>7.75146484375E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>68</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>7.7475905418395996E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>68</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>7.7475905418395996E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>69</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>7.3529481887817383E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>70</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>7.3034763336181641E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>71</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>7.185518741607666E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>72</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>6.6887140274047852E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>73</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>6.4029693603515616E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>74</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>6.3955187797546387E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>75</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>6.341397762298584E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>76</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>6.3030123710632324E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>76</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>6.3030123710632324E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>76</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>6.3030123710632324E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>76</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>6.3030123710632324E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>76</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>6.3030123710632324E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>77</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>6.0882568359375E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>78</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>5.9721469879150391E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>79</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>5.9383511543273926E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>80</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>5.6008696556091309E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>81</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>5.4996013641357422E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>82</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>5.4501891136169434E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>83</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>5.2446126937866211E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>84</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>4.9762725830078116E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>85</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>4.8136115074157706E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>86</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>4.7923922538757324E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>87</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>4.7456026077270508E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>87</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>4.7456026077270508E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>87</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>4.7456026077270508E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>88</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>4.6590566635131836E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>88</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>4.6590566635131836E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>88</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>4.6590566635131836E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>88</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>4.6590566635131836E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>89</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>4.5750737190246582E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>89</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>4.5750737190246582E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>89</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>4.5750737190246582E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>89</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>4.5750737190246582E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>90</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>4.5584440231323242E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>91</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>4.4845938682556152E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>91</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>4.4845938682556152E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>91</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>4.4845938682556152E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>91</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>4.4845938682556152E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>92</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>4.462122917175293E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>93</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>4.4543743133544922E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>94</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>4.3439865112304688E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>94</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>4.3439865112304688E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>94</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>4.3439865112304688E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>94</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>4.3439865112304688E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>95</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>4.2654871940612793E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>96</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>4.1502714157104492E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>97</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>4.0991902351379386E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>98</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>4.0785074234008789E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>99</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>4.0221810340881348E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>100</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>4.0010213851928711E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>101</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>3.9896965026855469E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>102</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>3.95965576171875E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>103</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>3.9573907852172852E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>104</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>3.9142370223999023E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>105</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>3.8776993751525879E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>106</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>3.853917121887207E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>107</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>3.844082355499268E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>108</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>3.821253776550293E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>109</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>3.8166642189025879E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>110</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>3.8084983825683589E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>111</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>3.8076639175415039E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>112</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>3.7949681282043461E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>113</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>3.788232803344727E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>114</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>3.697514533996582E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>115</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>3.6933422088623051E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>116</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>3.6206841468811039E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>117</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>3.61335277557373E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>118</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>3.5464763641357422E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>119</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>3.5406947135925289E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>120</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>3.5082697868347168E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>121</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>3.458797931671143E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>122</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>3.406822681427002E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>123</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>3.401577472686768E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>124</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>3.383338451385498E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>125</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>3.3832192420959468E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>126</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>3.371894359588623E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>127</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>3.3689141273498539E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>128</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>3.332674503326416E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>128</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>3.332674503326416E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>129</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>3.3245086669921879E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>130</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>3.3242702484130859E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>131</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>3.32176685333252E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>132</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>3.290772438049316E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>133</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>3.2116174697875981E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>134</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>3.1808614730834961E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>135</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>3.1585693359375E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>136</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>3.1469464302062988E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>137</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>3.0909180641174321E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>137</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>3.0909180641174321E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>137</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>3.0909180641174321E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>137</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>3.0909180641174321E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>138</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>3.0775666236877441E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>139</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>3.0748248100280762E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>139</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>3.0748248100280762E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>139</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>3.0748248100280762E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>139</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>3.0748248100280762E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>140</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>3.0649900436401372E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>141</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>3.0488967895507808E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>142</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>3.034889698028564E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>143</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>2.9962658882141109E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>144</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>2.9406547546386719E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>145</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>2.938926219940186E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>146</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>2.929449081420898E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>147</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>2.9186606407165532E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>148</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>2.9056072235107422E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>149</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>2.8993487358093262E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>150</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>2.8743147850036621E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>151</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>2.8653144836425781E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>151</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>2.8653144836425781E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>152</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>2.8614997863769531E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>152</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>2.8614997863769531E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>152</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>2.8614997863769531E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>152</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>2.8614997863769531E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>153</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>2.8565526008605961E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>153</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>2.8565526008605961E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C202" cm="1">
         <f t="array" ref="C202">SUMPRODUCT(--(B2:B201=C2:C201))</f>
         <v>155</v>
